--- a/Programme.json_builder/work/tableau_ingest.xlsx
+++ b/Programme.json_builder/work/tableau_ingest.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,17 +480,17 @@
     <row r="2" ht="40" customHeight="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>Le temps des moissons - VOST</t>
+          <t>La vie après Siham - VOST</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr"/>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>ME</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D2" s="5" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
@@ -501,7 +501,7 @@
     <row r="3" ht="40" customHeight="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>Géniales - SCOL</t>
+          <t>Baise-en-ville</t>
         </is>
       </c>
       <c r="B3" s="5" t="inlineStr"/>
@@ -511,49 +511,49 @@
         </is>
       </c>
       <c r="D3" s="5" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>10h</t>
+          <t>21h</t>
         </is>
       </c>
     </row>
     <row r="4" ht="40" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Champions (Campeones) - SCOL</t>
+          <t>La pire mère au monde</t>
         </is>
       </c>
       <c r="B4" s="5" t="inlineStr"/>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>JE</t>
+          <t>VE</t>
         </is>
       </c>
       <c r="D4" s="5" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>14h</t>
+          <t>15h</t>
         </is>
       </c>
     </row>
     <row r="5" ht="40" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>Los tigres</t>
+          <t>Victor comme tout le monde</t>
         </is>
       </c>
       <c r="B5" s="5" t="inlineStr"/>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>JE</t>
+          <t>VE</t>
         </is>
       </c>
       <c r="D5" s="5" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
@@ -564,17 +564,17 @@
     <row r="6" ht="40" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>La petite cuisine de Mehdi</t>
+          <t>Le grand Phuket - VOST</t>
         </is>
       </c>
       <c r="B6" s="5" t="inlineStr"/>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>VE</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="D6" s="5" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
@@ -585,28 +585,28 @@
     <row r="7" ht="40" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Le pays d'Arto</t>
+          <t>En route</t>
         </is>
       </c>
       <c r="B7" s="5" t="inlineStr"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>VE</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>21h</t>
+          <t>17h</t>
         </is>
       </c>
     </row>
     <row r="8" ht="40" customHeight="1">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Imago - VOST</t>
+          <t>Urchin - VOST</t>
         </is>
       </c>
       <c r="B8" s="5" t="inlineStr"/>
@@ -616,18 +616,18 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>16h</t>
+          <t>18h</t>
         </is>
       </c>
     </row>
     <row r="9" ht="40" customHeight="1">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>Elles inspirent</t>
+          <t>Noise - VOST</t>
         </is>
       </c>
       <c r="B9" s="5" t="inlineStr"/>
@@ -637,39 +637,39 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>18h</t>
+          <t>21h15</t>
         </is>
       </c>
     </row>
     <row r="10" ht="40" customHeight="1">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>Stups</t>
+          <t>Les fleurs du manguier - VOST</t>
         </is>
       </c>
       <c r="B10" s="5" t="inlineStr"/>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>DI</t>
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E10" s="5" t="inlineStr">
         <is>
-          <t>21h</t>
+          <t>11h</t>
         </is>
       </c>
     </row>
     <row r="11" ht="40" customHeight="1">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>Les cavaliers des terres sauvages - VOST</t>
+          <t>Sauvage</t>
         </is>
       </c>
       <c r="B11" s="5" t="inlineStr"/>
@@ -679,18 +679,18 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E11" s="5" t="inlineStr">
         <is>
-          <t>11h</t>
+          <t>15h</t>
         </is>
       </c>
     </row>
     <row r="12" ht="40" customHeight="1">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Tout est parti d'ici</t>
+          <t>I swear - VOST</t>
         </is>
       </c>
       <c r="B12" s="5" t="inlineStr"/>
@@ -700,70 +700,70 @@
         </is>
       </c>
       <c r="D12" s="5" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>15h</t>
+          <t>17h</t>
         </is>
       </c>
     </row>
     <row r="13" ht="40" customHeight="1">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>Pompei, sotto le nuvole - VOST</t>
+          <t>Ma frère</t>
         </is>
       </c>
       <c r="B13" s="5" t="inlineStr"/>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>DI</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>17h15</t>
+          <t>21h</t>
         </is>
       </c>
     </row>
     <row r="14" ht="40" customHeight="1">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>L'agent secret - VOST</t>
+          <t>Tatouage - VOST</t>
         </is>
       </c>
       <c r="B14" s="5" t="inlineStr"/>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>DI</t>
+          <t>ME</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>20h30</t>
+          <t>21h</t>
         </is>
       </c>
     </row>
     <row r="15" ht="40" customHeight="1">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Lady Nazca - VOST</t>
+          <t>A pied d'œuvre</t>
         </is>
       </c>
       <c r="B15" s="5" t="inlineStr"/>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>JE</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
@@ -774,91 +774,91 @@
     <row r="16" ht="40" customHeight="1">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Furcy, né libre</t>
+          <t>Alter ego</t>
         </is>
       </c>
       <c r="B16" s="5" t="inlineStr"/>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>ME</t>
+          <t>VE</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>21h</t>
+          <t>19h</t>
         </is>
       </c>
     </row>
     <row r="17" ht="40" customHeight="1">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>Au fil de l'eau - SCOL</t>
+          <t>Le mystérieux regard du flamant rose - VOST</t>
         </is>
       </c>
       <c r="B17" s="5" t="inlineStr"/>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>JE</t>
+          <t>VE</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>10h</t>
+          <t>21h15</t>
         </is>
       </c>
     </row>
     <row r="18" ht="40" customHeight="1">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>Father, Mother, Sister, Brother - VOST</t>
+          <t>Un jour avec mon père - VOST</t>
         </is>
       </c>
       <c r="B18" s="5" t="inlineStr"/>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>JE</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>21h</t>
+          <t>14h</t>
         </is>
       </c>
     </row>
     <row r="19" ht="40" customHeight="1">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>La femme de ménage</t>
+          <t>Maspalomas - VOST</t>
         </is>
       </c>
       <c r="B19" s="5" t="inlineStr"/>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>VE</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>21h</t>
+          <t>16h</t>
         </is>
       </c>
     </row>
     <row r="20" ht="40" customHeight="1">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Avatar De feu et de cendres</t>
+          <t>La danse des renards</t>
         </is>
       </c>
       <c r="B20" s="5" t="inlineStr"/>
@@ -868,18 +868,18 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>14h30</t>
+          <t>18h15</t>
         </is>
       </c>
     </row>
     <row r="21" ht="40" customHeight="1">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Eleonora Duse - VOST</t>
+          <t>Le garçon qui faisait danser les  collines - VOST</t>
         </is>
       </c>
       <c r="B21" s="5" t="inlineStr"/>
@@ -889,49 +889,49 @@
         </is>
       </c>
       <c r="D21" s="5" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>18h</t>
+          <t>21h15</t>
         </is>
       </c>
     </row>
     <row r="22" ht="40" customHeight="1">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>La pire mère au monde</t>
+          <t>Affection, affection</t>
         </is>
       </c>
       <c r="B22" s="5" t="inlineStr"/>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>DI</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>21h</t>
+          <t>11h</t>
         </is>
       </c>
     </row>
     <row r="23" ht="40" customHeight="1">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>La fabrique des monstres</t>
+          <t>Un jour avec mon père - VOST</t>
         </is>
       </c>
       <c r="B23" s="5" t="inlineStr"/>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>VE</t>
+          <t>DI</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
@@ -942,17 +942,17 @@
     <row r="24" ht="40" customHeight="1">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>CM1 - Votre attention s'il-vous-plait</t>
+          <t>La maison des femmes</t>
         </is>
       </c>
       <c r="B24" s="5" t="inlineStr"/>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>VE</t>
+          <t>DI</t>
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
@@ -963,21 +963,84 @@
     <row r="25" ht="40" customHeight="1">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Qui brille au combat + CM1</t>
+          <t>Piro Piro</t>
         </is>
       </c>
       <c r="B25" s="5" t="inlineStr"/>
       <c r="C25" s="5" t="inlineStr">
         <is>
-          <t>VE</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>17h</t>
+          <t>9h30</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="40" customHeight="1">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>Le mécano de la générale</t>
+        </is>
+      </c>
+      <c r="B26" s="5" t="inlineStr"/>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>14h30</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="40" customHeight="1">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>CM2 - Réel</t>
+        </is>
+      </c>
+      <c r="B27" s="5" t="inlineStr"/>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>21h</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="40" customHeight="1">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>L'affaire Bojarski + CM2</t>
+        </is>
+      </c>
+      <c r="B28" s="5" t="inlineStr"/>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>21h</t>
         </is>
       </c>
     </row>
